--- a/Assets/xmldata/이벤트대사스크립트.xlsx
+++ b/Assets/xmldata/이벤트대사스크립트.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="77">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,15 +252,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>흐음… 선배 보기와는 다르게 공부 잘 하시는 군요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그러곤 잠시 후 어쩐지 심기가 불편해 보이기 시작하더니 갑자기 날 째려보기 시작했다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그럼 이 몸은 이만!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -375,16 +367,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>제 이름은 서연서에요.
-중간고사까지 잘 부탁드릴게요 선배.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>종료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㅇㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 이 몸은 이만!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후배2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구가 없어 점심시간에 매일 도서관에서 공부만 하는 나에게 귀여운 후배가 공부를 가르쳐주길 요청해왔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그나저나 이 녀석 첫 날부터 지각이냐!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 배려해주면 오히려 불편해지는 것이 바로 이몸.
+내키지 않았지만 공부를 가르쳐달라는 부탁을 거절할 수 없었던 것이다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제 이름은 고연서에요.
+중간고사까지 남은 한 달간 잘 부탁드릴게요 선배.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름은 고연서, 조금 무뚝뚝한 것 같지만 심성은 착한 애라고 생각한다.
+이 몸의 전력 몸통박치기를 당하고 부상을 입었지만 내가 미안해하지 않도록 내색하지 않은 점에서 그 애의 상냥함을 느꼈다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,8 +545,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F65" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:F65"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F69" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:F69"/>
   <tableColumns count="6">
     <tableColumn id="1" uniqueName="key" name="key">
       <xmlColumnPr mapId="1" xpath="/Root/Unit/@key" xmlDataType="string"/>
@@ -808,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -922,7 +948,7 @@
         <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1015,7 +1041,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1155,50 +1181,50 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C31" t="s">
-        <v>13</v>
+      <c r="B31">
+        <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B32">
-        <v>4</v>
+      <c r="C32" t="s">
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C33" t="s">
-        <v>16</v>
-      </c>
       <c r="D33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D34" t="s">
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1207,21 +1233,21 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D35" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1229,10 +1255,10 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1240,92 +1266,92 @@
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="3" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="3" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B44">
-        <v>4</v>
-      </c>
       <c r="D44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C46" t="s">
-        <v>13</v>
+      <c r="B46">
+        <v>3</v>
       </c>
       <c r="D46" t="s">
         <v>53</v>
@@ -1336,43 +1362,43 @@
         <v>6</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B48">
-        <v>4</v>
+      <c r="C48" t="s">
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C49" t="s">
-        <v>13</v>
+      <c r="B49">
+        <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B50">
-        <v>2</v>
+      <c r="C50" t="s">
+        <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1380,10 +1406,10 @@
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1391,10 +1417,10 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1405,59 +1431,59 @@
         <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C54" t="s">
-        <v>16</v>
+      <c r="B54">
+        <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B55">
-        <v>4</v>
-      </c>
       <c r="D55" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D56" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C57" t="s">
-        <v>13</v>
+      <c r="B57">
+        <v>2</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B58">
-        <v>2</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>15</v>
+      <c r="C58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1465,49 +1491,52 @@
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B61">
-        <v>2</v>
-      </c>
       <c r="C61" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>6</v>
       </c>
@@ -1515,35 +1544,67 @@
         <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B64">
-        <v>2</v>
-      </c>
-      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
         <v>66</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="D65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68">
         <v>4</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D68" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>69</v>
+      </c>
+      <c r="C69" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/xmldata/이벤트대사스크립트.xlsx
+++ b/Assets/xmldata/이벤트대사스크립트.xlsx
@@ -837,7 +837,7 @@
   <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
